--- a/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,87</t>
+          <t>5,42; 16,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 26,82</t>
+          <t>11,84; 26,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 23,09</t>
+          <t>9,79; 23,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 31,55</t>
+          <t>14,94; 31,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,48</t>
+          <t>6,12; 16,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 39,66</t>
+          <t>22,07; 40,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 28,94</t>
+          <t>13,19; 28,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,22</t>
+          <t>14,29; 24,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 14,84</t>
+          <t>6,87; 14,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,73</t>
+          <t>19,41; 31,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 23,81</t>
+          <t>13,32; 23,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 25,23</t>
+          <t>15,94; 25,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,72</t>
+          <t>13,77; 19,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,95</t>
+          <t>8,89; 14,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 16,65</t>
+          <t>10,94; 17,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,33</t>
+          <t>11,82; 17,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,56</t>
+          <t>17,0; 23,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,92</t>
+          <t>21,57; 29,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 20,58</t>
+          <t>14,35; 20,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 22,23</t>
+          <t>16,82; 22,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,64</t>
+          <t>16,42; 20,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 20,83</t>
+          <t>15,79; 20,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 17,54</t>
+          <t>13,68; 17,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 19,09</t>
+          <t>15,12; 18,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 20,43</t>
+          <t>15,28; 20,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,84</t>
+          <t>14,0; 18,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,84</t>
+          <t>8,7; 12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,33</t>
+          <t>7,89; 12,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,7</t>
+          <t>21,26; 26,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 26,62</t>
+          <t>20,84; 26,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 17,59</t>
+          <t>12,9; 17,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 19,85</t>
+          <t>15,7; 19,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,18; 22,9</t>
+          <t>19,0; 22,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 21,77</t>
+          <t>18,17; 21,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 14,5</t>
+          <t>11,38; 14,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 15,44</t>
+          <t>12,38; 15,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,37</t>
+          <t>14,06; 20,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,04</t>
+          <t>12,69; 18,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,77</t>
+          <t>8,52; 13,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,31</t>
+          <t>11,96; 18,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,29</t>
+          <t>19,97; 26,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,28; 28,9</t>
+          <t>22,21; 28,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 19,37</t>
+          <t>14,22; 19,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 53,86</t>
+          <t>17,76; 53,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,36</t>
+          <t>17,91; 22,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,51</t>
+          <t>18,46; 22,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,42</t>
+          <t>11,89; 15,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 39,04</t>
+          <t>16,07; 39,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 19,39</t>
+          <t>14,7; 19,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,74; 20,9</t>
+          <t>15,88; 20,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 14,47</t>
+          <t>10,16; 14,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,72</t>
+          <t>12,97; 17,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,53; 25,77</t>
+          <t>20,81; 25,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,32</t>
+          <t>25,79; 31,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,82</t>
+          <t>14,86; 19,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,36</t>
+          <t>19,72; 24,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,92</t>
+          <t>18,5; 22,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 25,53</t>
+          <t>21,91; 25,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,3</t>
+          <t>13,23; 16,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 20,46</t>
+          <t>17,25; 20,67</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,58; 18,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,15</t>
+          <t>14,32; 16,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,82</t>
+          <t>10,59; 12,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,87</t>
+          <t>12,28; 14,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>21,09; 23,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,56</t>
+          <t>24,39; 27,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,02</t>
+          <t>15,41; 17,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,11; 29,41</t>
+          <t>19,02; 30,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,84; 20,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 21,97</t>
+          <t>19,85; 21,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,08</t>
+          <t>13,39; 15,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,8</t>
+          <t>16,36; 23,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 16,75</t>
+          <t>5,37; 16,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 26,94</t>
+          <t>11,95; 26,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 23,78</t>
+          <t>9,74; 23,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 16,61</t>
+          <t>6,05; 16,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 40,52</t>
+          <t>21,22; 38,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 28,75</t>
+          <t>13,53; 29,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,86</t>
+          <t>6,94; 14,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,41; 31,84</t>
+          <t>19,0; 30,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 23,44</t>
+          <t>13,07; 23,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,6</t>
+          <t>13,48; 19,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,1</t>
+          <t>8,8; 14,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,22</t>
+          <t>10,86; 16,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,86</t>
+          <t>16,58; 23,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 29,03</t>
+          <t>22,12; 29,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 20,59</t>
+          <t>14,58; 20,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,69</t>
+          <t>16,22; 20,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,58</t>
+          <t>15,92; 20,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 17,9</t>
+          <t>13,32; 17,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 20,53</t>
+          <t>15,31; 20,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,79</t>
+          <t>13,88; 18,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,69</t>
+          <t>8,57; 12,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,26; 26,9</t>
+          <t>20,95; 26,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,15</t>
+          <t>20,96; 26,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 17,53</t>
+          <t>13,05; 17,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,0; 22,93</t>
+          <t>19,02; 22,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,81</t>
+          <t>17,99; 21,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 14,41</t>
+          <t>11,23; 14,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,21</t>
+          <t>14,28; 20,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 18,07</t>
+          <t>12,42; 17,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,05</t>
+          <t>8,19; 13,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 26,33</t>
+          <t>19,66; 26,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 28,95</t>
+          <t>22,47; 29,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 19,6</t>
+          <t>13,86; 19,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,29</t>
+          <t>18,24; 22,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 22,77</t>
+          <t>18,3; 22,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 15,89</t>
+          <t>11,83; 15,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,7; 19,39</t>
+          <t>14,76; 19,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,88; 20,97</t>
+          <t>15,98; 21,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,16; 14,29</t>
+          <t>10,08; 14,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,81; 25,91</t>
+          <t>20,43; 25,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,43</t>
+          <t>25,74; 31,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,86; 19,76</t>
+          <t>14,82; 19,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,5; 22,13</t>
+          <t>18,41; 21,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,91; 25,65</t>
+          <t>21,72; 25,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,7</t>
+          <t>13,37; 16,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,58; 18,3</t>
+          <t>15,59; 18,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,96</t>
+          <t>14,63; 17,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,9</t>
+          <t>10,63; 12,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,09; 23,92</t>
+          <t>20,95; 23,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,39; 27,46</t>
+          <t>24,43; 27,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,97</t>
+          <t>15,4; 17,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 20,71</t>
+          <t>18,76; 20,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,95</t>
+          <t>19,93; 22,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,09</t>
+          <t>13,38; 15,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 16,61</t>
+          <t>5,46; 16,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 26,85</t>
+          <t>12,14; 26,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 23,6</t>
+          <t>9,92; 23,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,94; 31,34</t>
+          <t>14,9; 31,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,77</t>
+          <t>6,03; 16,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,22; 38,99</t>
+          <t>20,94; 39,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 29,09</t>
+          <t>13,13; 28,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 24,38</t>
+          <t>14,67; 24,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,46</t>
+          <t>6,83; 14,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,0; 30,04</t>
+          <t>18,68; 30,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 23,49</t>
+          <t>13,46; 23,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 25,24</t>
+          <t>15,98; 25,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,42</t>
+          <t>13,73; 19,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,01</t>
+          <t>8,87; 13,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,47</t>
+          <t>10,74; 16,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,85</t>
+          <t>11,5; 17,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 23,46</t>
+          <t>16,86; 23,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 29,42</t>
+          <t>21,58; 28,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,85</t>
+          <t>14,31; 20,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,03</t>
+          <t>16,8; 22,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,22; 20,45</t>
+          <t>16,2; 20,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 20,69</t>
+          <t>16,18; 20,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 17,92</t>
+          <t>13,4; 17,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,88</t>
+          <t>15,19; 19,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,31; 20,44</t>
+          <t>15,08; 20,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 18,97</t>
+          <t>13,94; 18,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,57</t>
+          <t>8,55; 12,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,18</t>
+          <t>7,97; 12,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,6</t>
+          <t>21,04; 26,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,96; 26,49</t>
+          <t>20,85; 26,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 17,54</t>
+          <t>13,14; 17,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 19,72</t>
+          <t>15,65; 19,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 22,72</t>
+          <t>19,18; 22,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,99; 21,72</t>
+          <t>17,9; 21,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 14,47</t>
+          <t>11,43; 14,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 15,47</t>
+          <t>12,51; 15,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,05</t>
+          <t>14,12; 20,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 17,67</t>
+          <t>12,55; 18,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,1</t>
+          <t>8,43; 12,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,28</t>
+          <t>12,24; 18,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 26,01</t>
+          <t>20,08; 26,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,47; 29,15</t>
+          <t>22,28; 28,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,28</t>
+          <t>14,02; 19,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 53,0</t>
+          <t>17,88; 53,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,24; 22,42</t>
+          <t>18,09; 22,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 22,34</t>
+          <t>18,32; 22,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,51</t>
+          <t>11,8; 15,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 39,94</t>
+          <t>16,04; 39,04</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,5</t>
+          <t>14,64; 19,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,98; 21,19</t>
+          <t>15,74; 20,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 14,37</t>
+          <t>10,2; 14,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,97; 17,57</t>
+          <t>12,76; 17,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,43; 25,84</t>
+          <t>20,53; 25,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 31,65</t>
+          <t>25,84; 31,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 19,66</t>
+          <t>14,94; 19,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,72; 24,34</t>
+          <t>19,66; 24,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,41; 21,99</t>
+          <t>18,09; 21,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,72; 25,7</t>
+          <t>21,58; 25,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,37; 16,7</t>
+          <t>13,01; 16,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 20,67</t>
+          <t>16,96; 20,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,34</t>
+          <t>15,64; 18,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,2</t>
+          <t>14,47; 17,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,82</t>
+          <t>10,62; 12,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,28; 14,89</t>
+          <t>12,37; 14,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,81</t>
+          <t>21,04; 23,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,46</t>
+          <t>24,43; 27,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,4; 17,98</t>
+          <t>15,32; 18,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 30,34</t>
+          <t>19,11; 29,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,76; 20,76</t>
+          <t>18,66; 20,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,93; 22,01</t>
+          <t>19,94; 21,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 15,08</t>
+          <t>13,36; 15,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,38</t>
+          <t>16,4; 22,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,87</t>
+          <t>12,69; 17,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 26,82</t>
+          <t>10,23; 15,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 23,09</t>
+          <t>11,48; 16,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 31,55</t>
+          <t>12,57; 18,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,48</t>
+          <t>15,94; 21,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 39,66</t>
+          <t>22,69; 29,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 28,94</t>
+          <t>14,87; 20,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,67; 24,22</t>
+          <t>16,98; 21,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 14,84</t>
+          <t>15,0; 19,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,73</t>
+          <t>17,23; 21,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 23,81</t>
+          <t>13,86; 17,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 25,23</t>
+          <t>15,41; 18,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>12,5%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,72</t>
+          <t>15,08; 20,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,95</t>
+          <t>13,94; 18,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 16,65</t>
+          <t>8,55; 12,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,33</t>
+          <t>4,08; 11,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,56</t>
+          <t>21,04; 26,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,92</t>
+          <t>20,85; 26,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 20,58</t>
+          <t>13,14; 17,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 22,23</t>
+          <t>15,75; 19,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,64</t>
+          <t>19,18; 22,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 20,83</t>
+          <t>17,9; 21,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 17,54</t>
+          <t>11,43; 14,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 19,09</t>
+          <t>8,67; 14,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>26,7%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 20,43</t>
+          <t>14,12; 20,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,84</t>
+          <t>12,55; 18,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,84</t>
+          <t>8,43; 12,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,33</t>
+          <t>12,1; 18,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,7</t>
+          <t>20,08; 26,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 26,62</t>
+          <t>22,28; 28,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 17,59</t>
+          <t>14,02; 19,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 19,85</t>
+          <t>16,8; 66,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,18; 22,9</t>
+          <t>18,09; 22,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 21,77</t>
+          <t>18,32; 22,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 14,5</t>
+          <t>11,8; 15,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 15,44</t>
+          <t>15,53; 51,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,37 +1101,37 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>17,94%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,37</t>
+          <t>14,64; 19,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,04</t>
+          <t>15,74; 20,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,77</t>
+          <t>10,2; 14,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,31</t>
+          <t>12,43; 17,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,29</t>
+          <t>20,53; 25,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,28; 28,9</t>
+          <t>25,84; 31,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 19,37</t>
+          <t>14,94; 19,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 53,86</t>
+          <t>16,64; 23,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,36</t>
+          <t>18,09; 21,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,51</t>
+          <t>21,58; 25,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,42</t>
+          <t>13,01; 16,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 39,04</t>
+          <t>15,8; 19,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>18,17%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 19,39</t>
+          <t>15,64; 18,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,74; 20,9</t>
+          <t>14,47; 17,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 14,47</t>
+          <t>10,62; 12,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,72</t>
+          <t>9,98; 14,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,53; 25,77</t>
+          <t>21,04; 23,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,32</t>
+          <t>24,43; 27,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,82</t>
+          <t>15,32; 18,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,36</t>
+          <t>18,43; 37,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,92</t>
+          <t>18,66; 20,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 25,53</t>
+          <t>19,94; 21,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,3</t>
+          <t>13,36; 15,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 20,46</t>
+          <t>15,34; 26,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,78%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,64%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,61%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>22,37%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>16,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,82%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19,69%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,93%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>14,19%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15,64; 18,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>14,47; 17,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,62; 12,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>12,37; 14,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>21,04; 23,91</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>24,43; 27,56</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 18,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19,11; 29,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18,66; 20,69</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>19,94; 21,97</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>13,36; 15,08</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,4; 22,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,69; 17,83</t>
+          <t>12,52; 18,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,24</t>
+          <t>10,11; 15,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,79</t>
+          <t>11,74; 17,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 18,11</t>
+          <t>12,41; 17,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 21,72</t>
+          <t>15,89; 21,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 29,55</t>
+          <t>22,76; 29,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 20,91</t>
+          <t>14,9; 21,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 21,23</t>
+          <t>16,96; 21,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 19,05</t>
+          <t>15,04; 19,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,23; 21,47</t>
+          <t>17,23; 21,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 17,96</t>
+          <t>13,94; 18,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,41; 18,88</t>
+          <t>15,39; 19,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,08; 20,43</t>
+          <t>15,42; 20,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,84</t>
+          <t>13,8; 18,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,84</t>
+          <t>8,54; 12,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,09</t>
+          <t>4,58; 11,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,7</t>
+          <t>21,0; 26,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 26,62</t>
+          <t>20,86; 26,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 17,59</t>
+          <t>13,21; 17,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 19,95</t>
+          <t>15,84; 19,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,18; 22,9</t>
+          <t>18,9; 22,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 21,77</t>
+          <t>18,13; 21,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 14,5</t>
+          <t>11,3; 14,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,71</t>
+          <t>8,64; 14,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,37</t>
+          <t>14,51; 20,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,04</t>
+          <t>12,49; 17,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,77</t>
+          <t>8,23; 12,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 18,18</t>
+          <t>11,58; 17,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,29</t>
+          <t>19,77; 26,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,28; 28,9</t>
+          <t>22,39; 29,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 19,37</t>
+          <t>13,8; 19,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 66,73</t>
+          <t>16,83; 63,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,36</t>
+          <t>18,01; 22,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,51</t>
+          <t>17,97; 22,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,42</t>
+          <t>11,99; 15,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 51,31</t>
+          <t>15,63; 49,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 19,39</t>
+          <t>14,8; 19,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 20,9</t>
+          <t>15,8; 21,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 14,47</t>
+          <t>10,01; 14,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,37</t>
+          <t>12,53; 17,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,53; 25,77</t>
+          <t>20,5; 25,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,32</t>
+          <t>25,92; 31,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,82</t>
+          <t>14,76; 19,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 23,28</t>
+          <t>16,49; 23,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,92</t>
+          <t>18,41; 21,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,58; 25,53</t>
+          <t>21,66; 25,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,3</t>
+          <t>13,24; 16,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 19,75</t>
+          <t>15,64; 19,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,61; 18,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,15</t>
+          <t>14,48; 17,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,82</t>
+          <t>10,46; 12,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,11</t>
+          <t>9,69; 14,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>20,9; 23,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,56</t>
+          <t>24,45; 27,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,02</t>
+          <t>15,38; 18,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 37,26</t>
+          <t>18,59; 38,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,66; 20,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 21,97</t>
+          <t>19,97; 22,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,08</t>
+          <t>13,37; 15,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,25</t>
+          <t>15,19; 26,29</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>106728</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>87968</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>94658</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>96147</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>128034</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>180785</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>119802</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>128669</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>234761</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>268753</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>214460</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>224815</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>86874; 125737</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70949; 105900</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79090; 114981</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>78761; 113114</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>109388; 147973</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>158420; 204494</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99867; 141265</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114629; 145294</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>207898; 262679</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>240793; 300691</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>187324; 242126</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>201665; 250026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>171607</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>165250</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>106766</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>98472</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>230430</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>241307</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>159592</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>170253</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>402037</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>406556</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>266358</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>268724</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>148329; 196756</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>140362; 190444</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87325; 127664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>54649; 131371</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>203353; 259444</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>214893; 268539</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>137816; 186926</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>151697; 190480</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>364792; 437429</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>371118; 447528</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>233382; 298845</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>185828; 313820</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>116206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113393</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>103582</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>157852</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>196944</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>129882</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>333775</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>274058</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>310336</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>209252</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>437357</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>98466; 137485</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94613; 134058</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62497; 98119</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81612; 123421</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>135195; 177766</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>172892; 225283</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>108029; 153749</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>157048; 594807</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>245394; 306710</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>274889; 341779</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>184837; 239214</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>256076; 818359</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>160128</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>173606</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>114210</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>136794</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>239726</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>300470</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>179279</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>225806</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>399854</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>474076</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>293489</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>362601</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>139424; 183728</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>149760; 199907</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93737; 136626</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>116139; 160773</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>212964; 266277</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>272645; 332967</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>153895; 206238</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>180412; 254321</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>364686; 435649</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>433098; 514495</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>262095; 325560</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>316063; 398980</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>554668</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>540216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>395005</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>434995</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>756042</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>919506</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>588555</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>858503</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1310710</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1459722</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>983560</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1293498</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>511610; 596679</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>495880; 583831</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>354814; 433259</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>335345; 486187</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>706186; 803807</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>867953; 976539</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>544270; 637888</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>680531; 1391476</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1242138; 1385570</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1392870; 1538054</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>926931; 1047567</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1081742; 1871800</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>